--- a/th_dialect_dict/datasets/ราชบัณฑิตฯ/หมวด_ญ(21).xlsx
+++ b/th_dialect_dict/datasets/ราชบัณฑิตฯ/หมวด_ญ(21).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanoon/Downloads/ข้อมูลพจนานุกรม ก-ฮ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d695ccdc58059bb2/Documents/Programming/th_dialect_dict/datasets/ราชบัณฑิตฯ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D01F96-3A61-A643-BF02-3A97FC66859A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{04D01F96-3A61-A643-BF02-3A97FC66859A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC050047-4C58-4FEC-8E8B-C75E591A1FDB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6120" yWindow="2805" windowWidth="21525" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>ญาติสืบสาโลหิต,ญาติสืบสายโลหิต</t>
   </si>
   <si>
-    <t>พยัญชนะตัวที่ ๑๓ เรียกว่า ญอ หญิง เป็นอักษรต่ำ ใช้เป็นพยัญชนะต้น และเป็นตัวสะกดในมาตรากนหรือแม่กน เช่น ปัญญา สัญชาติ ผจญ โคโลญ.</t>
-  </si>
-  <si>
     <t>ว. แตกจากหมู่, กระจัดกระจาย, ในคำว่า หนีญญ่ายพ่ายจแจ้น (จารึกสยาม).</t>
   </si>
   <si>
@@ -200,6 +197,9 @@
   </si>
   <si>
     <t>ดู ใบขนุน (๑).</t>
+  </si>
+  <si>
+    <t>? พยัญชนะตัวที่ ๑๓ เรียกว่า ญอ หญิง เป็นอักษรต่ำ ใช้เป็นพยัญชนะต้น และเป็นตัวสะกดในมาตรากนหรือแม่กน เช่น ปัญญา สัญชาติ ผจญ โคโลญ.</t>
   </si>
 </sst>
 </file>
@@ -582,18 +582,18 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="62.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="62.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,244 +604,244 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2"/>
     </row>
